--- a/LLM_Q_Generate/outputs/4+10_2_results/DINA_Q_Matrix_4+10_2.xlsx
+++ b/LLM_Q_Generate/outputs/4+10_2_results/DINA_Q_Matrix_4+10_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Developer 2086\DINA-QuesRecommend-main\LLM_Q_Generate\outputs\4+10_2_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54D1B3-FB5C-4367-9C24-2FC6C6A1892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC97D71-9B91-4F9F-8C02-50636151742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4697,11 +4697,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
-      <selection activeCell="B836" sqref="B836"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -53499,7 +53502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
